--- a/clean_sample_sheet.xlsx
+++ b/clean_sample_sheet.xlsx
@@ -509,8 +509,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>29</v>
@@ -559,8 +561,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -609,8 +613,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>2</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>11</v>
@@ -659,8 +665,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>38</v>
@@ -709,8 +717,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>2</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>23</v>
@@ -759,8 +769,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>39.5</v>
@@ -809,8 +821,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>29.5</v>
@@ -859,8 +873,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>2</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>37</v>
@@ -909,8 +925,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>2</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>61</v>
@@ -959,8 +977,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>12</v>
@@ -1009,8 +1029,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>1</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>38.5</v>
@@ -1059,8 +1081,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>40</v>
@@ -1109,8 +1133,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>1</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>16</v>
@@ -1159,8 +1185,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>23</v>
@@ -1209,8 +1237,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>41.5</v>
@@ -1259,8 +1289,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>2</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -1309,8 +1341,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>2</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F18" t="n">
         <v>44</v>
@@ -1359,8 +1393,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>1</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F19" t="n">
         <v>34</v>
@@ -1409,8 +1445,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>2</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>62</v>
@@ -1459,8 +1497,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>1</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>28</v>
@@ -1509,8 +1549,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>2</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>34.5</v>
@@ -1559,8 +1601,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>1</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>59</v>
@@ -1609,8 +1653,10 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>1</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>51.5</v>
@@ -1659,8 +1705,10 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>2</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>40</v>
